--- a/rekap_transaksi.xlsx
+++ b/rekap_transaksi.xlsx
@@ -1,41 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView xWindow="390" yWindow="555" windowWidth="15975" windowHeight="7365"/>
+  </bookViews>
   <sheets>
     <sheet name="Rekap Transaksi" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>hunter</t>
+  </si>
+  <si>
+    <t>worker</t>
+  </si>
+  <si>
+    <t>fee</t>
+  </si>
+  <si>
+    <t>hunterFee</t>
+  </si>
+  <si>
+    <t>workerFee</t>
+  </si>
+  <si>
+    <t>adminFee</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,6 +84,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,93 +413,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Job</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Hunter</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Worker</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Fee</v>
-      </c>
-      <c r="E1" t="str">
-        <v>HunterFee</v>
-      </c>
-      <c r="F1" t="str">
-        <v>WorkerFee</v>
-      </c>
-      <c r="G1" t="str">
-        <v>AdminFee</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Status</v>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Website Development</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Andi</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Budi</v>
-      </c>
-      <c r="D2">
-        <v>1000000</v>
-      </c>
-      <c r="E2">
-        <v>250000</v>
-      </c>
-      <c r="F2">
-        <v>750000</v>
-      </c>
-      <c r="G2">
-        <v>50000</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Selesai</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Website Development</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Andi</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Budi</v>
-      </c>
-      <c r="D3">
-        <v>1000000</v>
-      </c>
-      <c r="E3">
-        <v>250000</v>
-      </c>
-      <c r="F3">
-        <v>750000</v>
-      </c>
-      <c r="G3">
-        <v>50000</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Selesai</v>
-      </c>
-    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
+    <ignoredError sqref="A1:I1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>